--- a/analysis/pre_gemini_data/Participant160/task_hard.xlsx
+++ b/analysis/pre_gemini_data/Participant160/task_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,287 +422,283 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condibody1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>conditbody2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>condstat1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>condstat2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>external4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>externalvar1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>index1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>index3</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>literal1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>literal4</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>loopbody2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>loopbody3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>loopstat1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>loopstat2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>loopstat3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methocall3</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>methocall4</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>methocall6</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>param1</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>param3</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>vairabl13</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>vairabl7</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>vairabl9</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>varaibl1</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>variab2</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>variabl10</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>variabl11</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>variabl12</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>variabl13</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>variabl4</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>variabl5</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>variabl8</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>variavl6</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>varibl3</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>varibl7</t>
         </is>
@@ -809,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
@@ -850,13 +834,13 @@
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB3" t="n">
         <v>25</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
       </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
@@ -882,7 +866,7 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AQ3" t="n">
         <v>2</v>
@@ -928,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>8</v>
@@ -969,13 +953,13 @@
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB4" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
@@ -1001,7 +985,7 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>471</v>
+        <v>385</v>
       </c>
       <c r="AQ4" t="n">
         <v>3</v>
@@ -1047,10 +1031,10 @@
         <v>150.18</v>
       </c>
       <c r="I5" t="n">
-        <v>15434.21</v>
+        <v>14867.03</v>
       </c>
       <c r="J5" t="n">
-        <v>8842.299999999999</v>
+        <v>8742.17</v>
       </c>
       <c r="K5" t="n">
         <v>1635.09</v>
@@ -1088,13 +1072,13 @@
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>13848.99</v>
+        <v>13615.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>13097.09</v>
+        <v>12863.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>11495.14</v>
+        <v>11261.55</v>
       </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
@@ -1120,7 +1104,7 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>102755.93</v>
+        <v>83152.98</v>
       </c>
       <c r="AQ5" t="n">
         <v>583.8099999999999</v>
@@ -1147,41 +1131,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E6" t="n">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="F6" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>4.24</v>
+        <v>5.74</v>
       </c>
       <c r="J6" t="n">
-        <v>2.43</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="n">
-        <v>0.45</v>
+        <v>0.63</v>
       </c>
       <c r="L6" t="n">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="M6" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="N6" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -1191,58 +1175,58 @@
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="U6" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="V6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.11</v>
       </c>
-      <c r="W6" t="n">
-        <v>0.08</v>
-      </c>
       <c r="X6" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>3.81</v>
+        <v>5.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.6</v>
+        <v>4.96</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.16</v>
+        <v>4.34</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
-        <v>28.26</v>
+        <v>32.08</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1285,10 +1269,10 @@
         <v>150.18</v>
       </c>
       <c r="I7" t="n">
-        <v>181.58</v>
+        <v>183.54</v>
       </c>
       <c r="J7" t="n">
-        <v>173.38</v>
+        <v>174.84</v>
       </c>
       <c r="K7" t="n">
         <v>204.39</v>
@@ -1326,13 +1310,13 @@
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>179.86</v>
+        <v>181.54</v>
       </c>
       <c r="AA7" t="n">
-        <v>184.47</v>
+        <v>186.43</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.61</v>
+        <v>181.64</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
@@ -1358,7 +1342,7 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>218.17</v>
+        <v>215.98</v>
       </c>
       <c r="AQ7" t="n">
         <v>194.6</v>
